--- a/200530-2-整理去除项.xlsx
+++ b/200530-2-整理去除项.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12000" yWindow="-28800" windowWidth="51200" windowHeight="28800"/>
+    <workbookView xWindow="-12000" yWindow="-28340" windowWidth="51200" windowHeight="28340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="汇总答案" sheetId="1" r:id="rId1"/>
+    <sheet name="去除项" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6663" uniqueCount="1899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7225" uniqueCount="2029">
   <si>
     <t>序号</t>
   </si>
@@ -5724,6 +5725,396 @@
   </si>
   <si>
     <t>准考证号</t>
+  </si>
+  <si>
+    <t>选择总分</t>
+  </si>
+  <si>
+    <t>编程总分</t>
+  </si>
+  <si>
+    <t>省份</t>
+  </si>
+  <si>
+    <t>考点</t>
+  </si>
+  <si>
+    <t>易子豪</t>
+  </si>
+  <si>
+    <t>未到场</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>KP10003</t>
+  </si>
+  <si>
+    <t>360922200909150015</t>
+  </si>
+  <si>
+    <t>林力扬</t>
+  </si>
+  <si>
+    <t>KP10052</t>
+  </si>
+  <si>
+    <t>440105201101237219</t>
+  </si>
+  <si>
+    <t>刘名溯</t>
+  </si>
+  <si>
+    <t>KP10063</t>
+  </si>
+  <si>
+    <t>420502200909061118</t>
+  </si>
+  <si>
+    <t>李福帮</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>362329198107112539</t>
+  </si>
+  <si>
+    <t>测试号</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>号</t>
+  </si>
+  <si>
+    <t>周皓宇</t>
+  </si>
+  <si>
+    <t>KP10001</t>
+  </si>
+  <si>
+    <t>340203201106241216</t>
+  </si>
+  <si>
+    <t>姜锦融</t>
+  </si>
+  <si>
+    <t>KP10021</t>
+  </si>
+  <si>
+    <t>110108200912043619</t>
+  </si>
+  <si>
+    <t>吴乐闻</t>
+  </si>
+  <si>
+    <t>KP10026</t>
+  </si>
+  <si>
+    <t>596894944</t>
+  </si>
+  <si>
+    <t>李咏轩</t>
+  </si>
+  <si>
+    <t>KP10030</t>
+  </si>
+  <si>
+    <t>110104201003012814</t>
+  </si>
+  <si>
+    <t>蓝桥31</t>
+  </si>
+  <si>
+    <t>B10031</t>
+  </si>
+  <si>
+    <t>123456792112345678</t>
+  </si>
+  <si>
+    <t>备用号</t>
+  </si>
+  <si>
+    <t>备用</t>
+  </si>
+  <si>
+    <t>蓝桥32</t>
+  </si>
+  <si>
+    <t>B10032</t>
+  </si>
+  <si>
+    <t>123456792212345678</t>
+  </si>
+  <si>
+    <t>蓝桥33</t>
+  </si>
+  <si>
+    <t>B10033</t>
+  </si>
+  <si>
+    <t>123456792312345678</t>
+  </si>
+  <si>
+    <t>蓝桥34</t>
+  </si>
+  <si>
+    <t>B10034</t>
+  </si>
+  <si>
+    <t>123456792412345678</t>
+  </si>
+  <si>
+    <t>蓝桥35</t>
+  </si>
+  <si>
+    <t>B10035</t>
+  </si>
+  <si>
+    <t>123456792512345678</t>
+  </si>
+  <si>
+    <t>NoName5</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>110100000000000001</t>
+  </si>
+  <si>
+    <t>测试账号</t>
+  </si>
+  <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>NoName4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>NoName6</t>
+  </si>
+  <si>
+    <t>吴岳祺</t>
+  </si>
+  <si>
+    <t>KP20104</t>
+  </si>
+  <si>
+    <t>350104200901240173</t>
+  </si>
+  <si>
+    <t>毛俣尧</t>
+  </si>
+  <si>
+    <t>KP20215</t>
+  </si>
+  <si>
+    <t>320602200703175314</t>
+  </si>
+  <si>
+    <t>吉文鹏</t>
+  </si>
+  <si>
+    <t>KP20230</t>
+  </si>
+  <si>
+    <t>320803200901062078</t>
+  </si>
+  <si>
+    <t>高子安</t>
+  </si>
+  <si>
+    <t>KP20265</t>
+  </si>
+  <si>
+    <t>321202200806136317</t>
+  </si>
+  <si>
+    <t>冯梓萌</t>
+  </si>
+  <si>
+    <t>KP20286</t>
+  </si>
+  <si>
+    <t>140802200605080116</t>
+  </si>
+  <si>
+    <t>栾一笑</t>
+  </si>
+  <si>
+    <t>KP20275</t>
+  </si>
+  <si>
+    <t>370705200703241047</t>
+  </si>
+  <si>
+    <t>陈威宇</t>
+  </si>
+  <si>
+    <t>KP20276</t>
+  </si>
+  <si>
+    <t>371727200807260559</t>
+  </si>
+  <si>
+    <t>孙佳宁</t>
+  </si>
+  <si>
+    <t>KP20331</t>
+  </si>
+  <si>
+    <t>330205200904067028</t>
+  </si>
+  <si>
+    <t>朱麒圳</t>
+  </si>
+  <si>
+    <t>KP20341</t>
+  </si>
+  <si>
+    <t>330382200803273138</t>
+  </si>
+  <si>
+    <t>肖李康</t>
+  </si>
+  <si>
+    <t>KP30009</t>
+  </si>
+  <si>
+    <t>430104200702250010</t>
+  </si>
+  <si>
+    <t>湖南长沙线上STEMA高级-Python</t>
+  </si>
+  <si>
+    <t>张益鸣</t>
+  </si>
+  <si>
+    <t>KP30013</t>
+  </si>
+  <si>
+    <t>210221200501047519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">辽宁大连线上STEMA高级-Python  </t>
+  </si>
+  <si>
+    <t>李昱憬</t>
+  </si>
+  <si>
+    <t>KP20026</t>
+  </si>
+  <si>
+    <t>331002200812250029</t>
+  </si>
+  <si>
+    <t>李柯辰宣</t>
+  </si>
+  <si>
+    <t>KP20101</t>
+  </si>
+  <si>
+    <t>350102200601150093</t>
+  </si>
+  <si>
+    <t>程铉哲</t>
+  </si>
+  <si>
+    <t>KP20208</t>
+  </si>
+  <si>
+    <t>320103200903190278</t>
+  </si>
+  <si>
+    <t>王嘉铭</t>
+  </si>
+  <si>
+    <t>KP20245</t>
+  </si>
+  <si>
+    <t>320583200807048742</t>
+  </si>
+  <si>
+    <t>陈梓彤</t>
+  </si>
+  <si>
+    <t>KP20299</t>
+  </si>
+  <si>
+    <t>330327200811122140</t>
+  </si>
+  <si>
+    <t>熊俊杰</t>
+  </si>
+  <si>
+    <t>KP30008</t>
+  </si>
+  <si>
+    <t>440304200505070734</t>
+  </si>
+  <si>
+    <t>蓝桥36</t>
+  </si>
+  <si>
+    <t>B10036</t>
+  </si>
+  <si>
+    <t>123456792612345678</t>
+  </si>
+  <si>
+    <t>蓝桥37</t>
+  </si>
+  <si>
+    <t>B10037</t>
+  </si>
+  <si>
+    <t>123456792712345678</t>
+  </si>
+  <si>
+    <t>蓝桥38</t>
+  </si>
+  <si>
+    <t>B10038</t>
+  </si>
+  <si>
+    <t>123456792812345678</t>
+  </si>
+  <si>
+    <t>蓝桥39</t>
+  </si>
+  <si>
+    <t>B10039</t>
+  </si>
+  <si>
+    <t>123456792912345678</t>
+  </si>
+  <si>
+    <t>蓝桥40</t>
+  </si>
+  <si>
+    <t>B10040</t>
+  </si>
+  <si>
+    <t>123456793012345678</t>
+  </si>
+  <si>
+    <t>-11.0</t>
+  </si>
+  <si>
+    <t>-16.0</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -6201,8 +6592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R444"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6242,13 +6633,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>6</v>
+        <v>1899</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>8</v>
+        <v>1900</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>9</v>
@@ -6266,10 +6657,10 @@
         <v>12</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>13</v>
+        <v>1901</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>14</v>
+        <v>1902</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>570</v>
@@ -31539,4 +31930,2178 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>1898</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>95</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H2" s="5">
+        <v>128</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J2" s="5">
+        <v>98</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>1906</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>1907</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>96</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H3" s="5">
+        <v>128</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J3" s="5">
+        <v>98</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>1909</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>1910</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>97</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H4" s="5">
+        <v>128</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J4" s="5">
+        <v>98</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>1912</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>1913</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>98</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H5" s="5">
+        <v>128</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J5" s="5">
+        <v>98</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>1915</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>1916</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>1917</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>1918</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>99</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H6" s="5">
+        <v>128</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J6" s="5">
+        <v>98</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>1921</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>1922</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>100</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H7" s="5">
+        <v>128</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J7" s="5">
+        <v>98</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>1924</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>1925</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>101</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H8" s="5">
+        <v>128</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J8" s="5">
+        <v>98</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>1927</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>1928</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>102</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H9" s="5">
+        <v>128</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J9" s="5">
+        <v>98</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>1930</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>1931</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>103</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H10" s="5">
+        <v>128</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J10" s="5">
+        <v>98</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>1934</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>1935</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>1936</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>104</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H11" s="5">
+        <v>128</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J11" s="5">
+        <v>98</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>1938</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>1939</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>1935</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>1936</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>105</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H12" s="5">
+        <v>128</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J12" s="5">
+        <v>98</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>1941</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>1942</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>1935</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>1936</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>106</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H13" s="5">
+        <v>128</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J13" s="5">
+        <v>98</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>1944</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>1945</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>1935</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>1936</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>107</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H14" s="5">
+        <v>128</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J14" s="5">
+        <v>98</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>1947</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>1948</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>1935</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>1936</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>109</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>1950</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="H15" s="5">
+        <v>128</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="J15" s="5">
+        <v>98</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>1952</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>1918</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>110</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H16" s="5">
+        <v>128</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="J16" s="5">
+        <v>98</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>1956</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>1952</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>1918</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>111</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="H17" s="5">
+        <v>128</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="J17" s="5">
+        <v>98</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>1956</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>1952</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>1918</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>340</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H18" s="5">
+        <v>128</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J18" s="5">
+        <v>128</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>1959</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>1960</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>1149</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>341</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H19" s="5">
+        <v>128</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J19" s="5">
+        <v>128</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>1962</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>1963</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>342</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H20" s="5">
+        <v>128</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J20" s="5">
+        <v>128</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>1965</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>1966</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>343</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H21" s="5">
+        <v>128</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J21" s="5">
+        <v>128</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>1968</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>1969</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>344</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H22" s="5">
+        <v>128</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J22" s="5">
+        <v>128</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>1971</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>345</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H23" s="5">
+        <v>128</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J23" s="5">
+        <v>128</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>1974</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>1975</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>346</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H24" s="5">
+        <v>128</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J24" s="5">
+        <v>128</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>1977</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>1978</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>347</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H25" s="5">
+        <v>128</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J25" s="5">
+        <v>128</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>1980</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>1981</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>348</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H26" s="5">
+        <v>128</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J26" s="5">
+        <v>128</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>1983</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>1984</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>349</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H27" s="5">
+        <v>128</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J27" s="5">
+        <v>128</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>1986</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>1987</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>1988</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="P27" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>350</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H28" s="5">
+        <v>128</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J28" s="5">
+        <v>128</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>1990</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>1991</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>1992</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>351</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H29" s="5">
+        <v>128</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J29" s="5">
+        <v>128</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>1994</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>1995</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>352</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H30" s="5">
+        <v>128</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J30" s="5">
+        <v>128</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>1997</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>1998</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>1149</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>353</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H31" s="5">
+        <v>128</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J31" s="5">
+        <v>128</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>2000</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>2001</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>354</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H32" s="5">
+        <v>128</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J32" s="5">
+        <v>128</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>2003</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>2004</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="O32" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>355</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H33" s="5">
+        <v>128</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J33" s="5">
+        <v>128</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>2006</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>2007</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>1501</v>
+      </c>
+      <c r="O33" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>356</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H34" s="5">
+        <v>128</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J34" s="5">
+        <v>128</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>2010</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>1406</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>357</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H35" s="5">
+        <v>128</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J35" s="5">
+        <v>128</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>2012</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>2013</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>1935</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>1936</v>
+      </c>
+      <c r="P35" s="12" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>358</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H36" s="5">
+        <v>128</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J36" s="5">
+        <v>128</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>2015</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>2016</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>1935</v>
+      </c>
+      <c r="O36" s="12" t="s">
+        <v>1936</v>
+      </c>
+      <c r="P36" s="12" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>359</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H37" s="5">
+        <v>128</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J37" s="5">
+        <v>128</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>2018</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>2019</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>1935</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>1936</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>360</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H38" s="5">
+        <v>128</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J38" s="5">
+        <v>128</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>2022</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>1935</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>1936</v>
+      </c>
+      <c r="P38" s="12" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>361</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H39" s="5">
+        <v>128</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J39" s="5">
+        <v>128</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>2024</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>2025</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>1935</v>
+      </c>
+      <c r="O39" s="12" t="s">
+        <v>1936</v>
+      </c>
+      <c r="P39" s="12" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>371</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>2027</v>
+      </c>
+      <c r="H40" s="5">
+        <v>128</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="J40" s="5">
+        <v>128</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>1915</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>1916</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O40" s="12" t="s">
+        <v>1918</v>
+      </c>
+      <c r="P40" s="12" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>372</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="H41" s="5">
+        <v>128</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J41" s="5">
+        <v>128</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>1952</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O41" s="12" t="s">
+        <v>1918</v>
+      </c>
+      <c r="P41" s="12" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>373</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>1848</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="H42" s="5">
+        <v>128</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="J42" s="5">
+        <v>128</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>2028</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>1952</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O42" s="12" t="s">
+        <v>1918</v>
+      </c>
+      <c r="P42" s="12" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>374</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>1853</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="H43" s="5">
+        <v>128</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="J43" s="5">
+        <v>128</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>1952</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O43" s="12" t="s">
+        <v>1918</v>
+      </c>
+      <c r="P43" s="12" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F15" r:id="rId1"/>
+    <hyperlink ref="F16" r:id="rId2"/>
+    <hyperlink ref="F17" r:id="rId3"/>
+    <hyperlink ref="F40" r:id="rId4"/>
+    <hyperlink ref="F41" r:id="rId5"/>
+    <hyperlink ref="F42" r:id="rId6"/>
+    <hyperlink ref="F43" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>